--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marwan Amin\Desktop\cache pro\Cache_Performance_Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\VS Code Projects\Cache_Performance_Simulator\Cache_Performance_Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951B8CF-2A07-460A-9F60-073CF8C735FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083CC80-01A5-4CD8-8B0A-D7F53ADA66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final results graphs" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -626,7 +626,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> size 32</a:t>
+              <a:t> size = 32 bytes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1193,7 +1193,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>number of ways</a:t>
+                  <a:t>Number of Ways</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1313,7 +1313,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Hit ratio</a:t>
+                  <a:t>Hit ratio (percentage)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1468,7 +1468,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1500,7 +1500,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4 way</a:t>
+              <a:t>4-Way</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2036,7 +2036,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Line Size </a:t>
+                  <a:t>Line Size (bytes) </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2156,7 +2156,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Hit ratio</a:t>
+                  <a:t>Hit ratio (percentage)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3460,16 +3460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9429</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12915</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>178568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>658678</xdr:colOff>
+      <xdr:colOff>645426</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>64576</xdr:rowOff>
+      <xdr:rowOff>44698</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3796,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="59" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
